--- a/Loader/Loader/Data/ExcelFile/ActivityLevel.xlsx
+++ b/Loader/Loader/Data/ExcelFile/ActivityLevel.xlsx
@@ -33,37 +33,37 @@
     <t>VipPriceSale</t>
   </si>
   <si>
-    <t>(vActivityRightDesc</t>
+    <t>(VActivityRightDesc</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>当前等级的总经验</t>
+  </si>
+  <si>
+    <t>购买普通商城内物品时获得的折扣(1代表1%)</t>
+  </si>
+  <si>
+    <t>额外增加每次竞技结束时的金钱、经验奖励(1代表1%)</t>
+  </si>
+  <si>
+    <t>再次购买钻石会员折扣(1代表1%)</t>
+  </si>
+  <si>
+    <t>(我是注释</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>当前等级的总经验</t>
-  </si>
-  <si>
-    <t>购买普通商城内物品时获得的折扣(1代表1%)</t>
-  </si>
-  <si>
-    <t>额外增加每次竞技结束时的金钱、经验奖励(1代表1%)</t>
-  </si>
-  <si>
-    <t>再次购买钻石会员折扣(1代表1%)</t>
-  </si>
-  <si>
-    <t>(我是注释</t>
-  </si>
-  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>(TestStruct</t>
   </si>
   <si>
     <t>(</t>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -95,8 +95,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,9 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,114 +233,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -261,25 +261,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,151 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,30 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,6 +499,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +562,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -593,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,136 +605,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1195,13 +1195,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -1209,25 +1209,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>

--- a/Loader/Loader/Data/ExcelFile/ActivityLevel.xlsx
+++ b/Loader/Loader/Data/ExcelFile/ActivityLevel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>Level</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>(TestStruct</t>
   </si>
   <si>
     <t>(</t>
@@ -74,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -95,6 +98,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -114,13 +147,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,55 +220,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -261,12 +264,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,37 +318,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,6 +378,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,48 +420,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,49 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +491,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,15 +526,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,21 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -593,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,136 +608,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1133,7 +1136,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1250,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10">
         <v>2081</v>
@@ -1285,7 +1288,7 @@
         <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="10">
         <v>2082</v>
@@ -1320,7 +1323,7 @@
         <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="10">
         <v>2083</v>
@@ -1355,7 +1358,7 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="10">
         <v>2084</v>

--- a/Loader/Loader/Data/ExcelFile/ActivityLevel.xlsx
+++ b/Loader/Loader/Data/ExcelFile/ActivityLevel.xlsx
@@ -77,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -220,6 +220,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -229,23 +243,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -264,25 +264,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,151 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +599,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,16 +608,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,31 +653,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -686,16 +686,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,40 +710,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/Loader/Loader/Data/ExcelFile/ActivityLevel.xlsx
+++ b/Loader/Loader/Data/ExcelFile/ActivityLevel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>Level</t>
   </si>
@@ -39,6 +39,9 @@
     <t>A</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>)</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>(TestStruct</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>(</t>
@@ -264,6 +270,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,6 +300,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -336,12 +354,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,6 +408,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,43 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +605,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,136 +614,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1133,13 +1139,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -1174,66 +1180,70 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="40.5" spans="1:11">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="K2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1253,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="10">
         <v>2081</v>
@@ -1268,7 +1278,7 @@
         <v>2093</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1288,7 +1298,7 @@
         <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10">
         <v>2082</v>
@@ -1303,7 +1313,7 @@
         <v>2094</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1323,7 +1333,7 @@
         <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="10">
         <v>2083</v>
@@ -1338,7 +1348,7 @@
         <v>2095</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1358,7 +1368,7 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" s="10">
         <v>2084</v>
@@ -1373,7 +1383,77 @@
         <v>2096</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11">
+        <v>400</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2083</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2087</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2091</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2095</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2084</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2088</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2092</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2096</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
